--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06-02-2022</t>
+          <t>07-02-2022</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13-02-2022</t>
+          <t>14-02-2022</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20-02-2022</t>
+          <t>21-02-2022</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27-02-2022</t>
+          <t>28-02-2022</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06-03-2022</t>
+          <t>07-03-2022</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13-03-2022</t>
+          <t>14-03-2022</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20-03-2022</t>
+          <t>21-03-2022</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27-03-2022</t>
+          <t>28-03-2022</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>03-04-2022</t>
+          <t>04-04-2022</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10-04-2022</t>
+          <t>11-04-2022</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17-04-2022</t>
+          <t>18-04-2022</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24-04-2022</t>
+          <t>25-04-2022</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01-05-2022</t>
+          <t>02-05-2022</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>08-05-2022</t>
+          <t>09-05-2022</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,6 +728,286 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>19-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>26-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>30-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>02-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>06-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>09-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>13-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>16-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>27-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>30-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>11-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>14-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>25-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>28-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01-08-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>04-08-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>08-08-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>11-08-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>15-08-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>18-08-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>22-08-2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
